--- a/data/processed/anexo3_consolidado.xlsx
+++ b/data/processed/anexo3_consolidado.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aportillol\Downloads\archivos para proyecto supervision\processed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexportillo/Documents/Proyectos Data Science/ucc-supervision/data/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382F768D-C0BD-486C-A4C8-47C894255C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CB142E-52BF-6843-8B95-3E85C29AE44F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="140" yWindow="660" windowWidth="28480" windowHeight="15780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="80">
   <si>
     <t>LA LIBERTAD</t>
   </si>
@@ -227,6 +240,39 @@
   </si>
   <si>
     <t>YELITZA RAMOS</t>
+  </si>
+  <si>
+    <t>ITEMS_VALIDO_TOTAL</t>
+  </si>
+  <si>
+    <t>ITEMS_NA_TOTAL</t>
+  </si>
+  <si>
+    <t>SUMA_TOTAL</t>
+  </si>
+  <si>
+    <t>PORCENTAJE_TOTAL</t>
+  </si>
+  <si>
+    <t>EVALUACION_TOTAL</t>
+  </si>
+  <si>
+    <t>BUENO</t>
+  </si>
+  <si>
+    <t>ITEMS_VALIDO_FAC</t>
+  </si>
+  <si>
+    <t>ITEMS_NA_FAC</t>
+  </si>
+  <si>
+    <t>SUMA_TOTAL_FAC</t>
+  </si>
+  <si>
+    <t>PORCENTAJE_FAC</t>
+  </si>
+  <si>
+    <t>EVALUACION_FAC</t>
   </si>
 </sst>
 </file>
@@ -616,21 +662,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS5"/>
+  <dimension ref="A1:AX5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AS1" sqref="AS1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="8.81640625" style="1" customWidth="1"/>
-    <col min="4" max="6" width="8.81640625" style="1"/>
-    <col min="7" max="7" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.81640625" style="1"/>
+    <col min="1" max="3" width="8.83203125" style="1" customWidth="1"/>
+    <col min="4" max="6" width="8.83203125" style="1"/>
+    <col min="7" max="7" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -722,19 +768,19 @@
         <v>58</v>
       </c>
       <c r="AE1" s="4" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="AF1" s="4" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AG1" s="4" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AH1" s="4" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AI1" s="4" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="AJ1" s="4" t="s">
         <v>59</v>
@@ -766,8 +812,23 @@
       <c r="AS1" s="4" t="s">
         <v>50</v>
       </c>
+      <c r="AT1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX1" s="4" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>2025</v>
       </c>
@@ -903,8 +964,27 @@
       <c r="AS2" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="AT2" s="1">
+        <f>T2+AE2+AO2</f>
+        <v>17</v>
+      </c>
+      <c r="AU2" s="1">
+        <f>U2+AF2+AP2</f>
+        <v>0</v>
+      </c>
+      <c r="AV2" s="1">
+        <f>V2+AG2+AQ2</f>
+        <v>24</v>
+      </c>
+      <c r="AW2" s="1">
+        <f>AV2/34</f>
+        <v>0.70588235294117652</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2025</v>
       </c>
@@ -1040,8 +1120,27 @@
       <c r="AS3" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="AT3" s="1">
+        <f t="shared" ref="AT3:AT4" si="0">T3+AE3+AO3</f>
+        <v>17</v>
+      </c>
+      <c r="AU3" s="1">
+        <f t="shared" ref="AU3:AU4" si="1">U3+AF3+AP3</f>
+        <v>0</v>
+      </c>
+      <c r="AV3" s="1">
+        <f t="shared" ref="AV3:AV4" si="2">V3+AG3+AQ3</f>
+        <v>22</v>
+      </c>
+      <c r="AW3" s="1">
+        <f t="shared" ref="AW3:AW4" si="3">AV3/34</f>
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="AX3" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2025</v>
       </c>
@@ -1177,8 +1276,27 @@
       <c r="AS4" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="AT4" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="AU4" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AV4" s="1">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="AW4" s="1">
+        <f t="shared" si="3"/>
+        <v>0.70588235294117652</v>
+      </c>
+      <c r="AX4" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.2">
       <c r="J5" s="5"/>
     </row>
   </sheetData>
